--- a/Config.xlsx
+++ b/Config.xlsx
@@ -35,7 +35,7 @@
     <t>Body</t>
   </si>
   <si>
-    <t>Hello{0},
+    <t>Hello {0},
 we will get back to soon as per your mail
 Thank you!
 Chethan P</t>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -36,8 +36,10 @@
   </si>
   <si>
     <t>Hello {0},
+&lt;br/&gt;
 we will get back to soon as per your mail
-Thank you!
+&lt;br/&gt;
+Thank you! &lt;br/&gt;
 Chethan P</t>
   </si>
 </sst>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -36,11 +36,11 @@
   </si>
   <si>
     <t>Hello {0},
-&lt;br/&gt;
+&lt;br&gt;&lt;br&gt;
 we will get back to soon as per your mail
-&lt;br/&gt;
-Thank you! &lt;br/&gt;
-Chethan P</t>
+&lt;br&gt;&lt;br&gt;
+Thank you! &lt;br&gt;
+Chethan P&lt;br&gt;</t>
   </si>
 </sst>
 </file>
